--- a/instructor/docs/Libro1.xlsx
+++ b/instructor/docs/Libro1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETEC-CTRL-LAB4\Documents\cetec\python\07\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETEC-CTRL-LAB4\Documents\GitHub\python_23_07\instructor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D07944-C954-4469-9D31-977DE0A645E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8014A4F-8493-47CE-AE26-876AF09F9CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="compuestas" sheetId="2" r:id="rId2"/>
     <sheet name="Persona" sheetId="3" r:id="rId3"/>
+    <sheet name="github" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Array</t>
   </si>
@@ -120,13 +121,55 @@
   </si>
   <si>
     <t>Representa TABLA DATOS COMPLETA</t>
+  </si>
+  <si>
+    <t>github.com</t>
+  </si>
+  <si>
+    <t>Descargar Github Desktop</t>
+  </si>
+  <si>
+    <t>Crear Usuario</t>
+  </si>
+  <si>
+    <t>Entrar con Usuario</t>
+  </si>
+  <si>
+    <t>Clonar Proyecto</t>
+  </si>
+  <si>
+    <t>https://github.com/cetec-bchavez/python_23_07.git</t>
+  </si>
+  <si>
+    <t>C:\Users\UsuarioX\Documents\GitHub\python_23_07\</t>
+  </si>
+  <si>
+    <t>Path Proyecto</t>
+  </si>
+  <si>
+    <t>Abrir Path con  VS Code</t>
+  </si>
+  <si>
+    <t>Cambios (Nuevas, Cambios,etc)</t>
+  </si>
+  <si>
+    <t>Guardar (Commit, Push)</t>
+  </si>
+  <si>
+    <t>Actualizar(Fetch Origin,Pull)</t>
+  </si>
+  <si>
+    <t>Traer Codigo (Actualizar) a Github.com</t>
+  </si>
+  <si>
+    <t>Guardar Codigo a Github.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +181,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,10 +250,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -214,11 +266,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0231BD-22ED-4D14-A0E3-8854B391206D}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J7"/>
     </sheetView>
   </sheetViews>
@@ -795,7 +849,6 @@
       <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -879,4 +932,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855096D-CCC9-4CE6-85EE-954FFBD0C050}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{EB65B298-9315-4B85-B0D6-47D96DE9EF04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/instructor/docs/Libro1.xlsx
+++ b/instructor/docs/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETEC-CTRL-LAB4\Documents\GitHub\python_23_07\instructor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8014A4F-8493-47CE-AE26-876AF09F9CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12D5F14-8105-486C-9752-BB6E2AF64CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Array</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Guardar Codigo a Github.com</t>
+  </si>
+  <si>
+    <t>Auto</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="D5:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,51 +626,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0231BD-22ED-4D14-A0E3-8854B391206D}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -680,17 +692,20 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>11111</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -703,17 +718,20 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>6</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>2222</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -726,17 +744,20 @@
       <c r="E5" s="2">
         <v>6</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>3333</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -749,17 +770,20 @@
       <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
         <v>12</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4444</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -772,17 +796,20 @@
       <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
         <v>15</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>5555</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -795,11 +822,14 @@
       <c r="E8" s="2">
         <v>12</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -812,7 +842,10 @@
       <c r="E9" s="2">
         <v>14</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
         <v>21</v>
       </c>
     </row>
@@ -938,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855096D-CCC9-4CE6-85EE-954FFBD0C050}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/instructor/docs/Libro1.xlsx
+++ b/instructor/docs/Libro1.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETEC-CTRL-LAB4\Documents\GitHub\python_23_07\instructor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12D5F14-8105-486C-9752-BB6E2AF64CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B336ADD4-9873-4ED7-9B58-E4BE5FB1F4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Variables" sheetId="1" r:id="rId1"/>
-    <sheet name="compuestas" sheetId="2" r:id="rId2"/>
-    <sheet name="Persona" sheetId="3" r:id="rId3"/>
-    <sheet name="github" sheetId="4" r:id="rId4"/>
+    <sheet name="github" sheetId="4" r:id="rId1"/>
+    <sheet name="Variables" sheetId="1" r:id="rId2"/>
+    <sheet name="compuestas" sheetId="2" r:id="rId3"/>
+    <sheet name="Funciones" sheetId="5" r:id="rId4"/>
+    <sheet name="Persona Clase" sheetId="3" r:id="rId5"/>
+    <sheet name="Factura Clase" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Array</t>
   </si>
@@ -166,13 +168,73 @@
   </si>
   <si>
     <t>Auto</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>gutierrez</t>
+  </si>
+  <si>
+    <t>Bustamante</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>sutotal</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>(+) FUNCIONES</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>factura1</t>
+  </si>
+  <si>
+    <t>factura2</t>
+  </si>
+  <si>
+    <t>factura3</t>
+  </si>
+  <si>
+    <t>factura4</t>
+  </si>
+  <si>
+    <t>factura5</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Tupla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +258,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -273,6 +347,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -587,387 +667,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394F83AB-4C64-4A81-958F-CED17AEFD0ED}">
-  <dimension ref="D5:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="K7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L11" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="1">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0231BD-22ED-4D14-A0E3-8854B391206D}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4">
-        <v>11111</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2222</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4">
-        <v>3333</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4">
-        <v>4444</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3">
-        <v>15</v>
-      </c>
-      <c r="J7" s="4">
-        <v>5555</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C0293-D349-4206-BD08-44EF8DE49844}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855096D-CCC9-4CE6-85EE-954FFBD0C050}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1075,4 +774,629 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394F83AB-4C64-4A81-958F-CED17AEFD0ED}">
+  <dimension ref="D5:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0231BD-22ED-4D14-A0E3-8854B391206D}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>11111</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2222</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3333</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4444</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5555</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>111</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>222</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" s="9">
+        <v>333</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769B21FD-AE1F-4EF4-ABA8-608EB07B9AFE}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <f>D2+D2*0.12</f>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <f>D3+D3*0.12</f>
+        <v>89.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C0293-D349-4206-BD08-44EF8DE49844}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A8171-9618-41B1-88B7-BA1C3411DA0C}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="12">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="12">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/instructor/docs/Libro1.xlsx
+++ b/instructor/docs/Libro1.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETEC-CTRL-LAB4\Documents\GitHub\python_23_07\instructor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B336ADD4-9873-4ED7-9B58-E4BE5FB1F4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60458B44-B349-4767-B2D0-DE9A983D4D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="github" sheetId="4" r:id="rId1"/>
-    <sheet name="Variables" sheetId="1" r:id="rId2"/>
-    <sheet name="compuestas" sheetId="2" r:id="rId3"/>
-    <sheet name="Funciones" sheetId="5" r:id="rId4"/>
-    <sheet name="Persona Clase" sheetId="3" r:id="rId5"/>
-    <sheet name="Factura Clase" sheetId="6" r:id="rId6"/>
+    <sheet name="Python" sheetId="7" r:id="rId1"/>
+    <sheet name="github" sheetId="4" r:id="rId2"/>
+    <sheet name="Variables" sheetId="1" r:id="rId3"/>
+    <sheet name="compuestas" sheetId="2" r:id="rId4"/>
+    <sheet name="Funciones" sheetId="5" r:id="rId5"/>
+    <sheet name="Persona Clase" sheetId="3" r:id="rId6"/>
+    <sheet name="Factura Clase" sheetId="6" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
   <si>
     <t>Array</t>
   </si>
@@ -228,6 +230,129 @@
   </si>
   <si>
     <t>Tupla</t>
+  </si>
+  <si>
+    <t>Cetecuno$</t>
+  </si>
+  <si>
+    <t>Bases</t>
+  </si>
+  <si>
+    <t>Estructura de Datos</t>
+  </si>
+  <si>
+    <t>Algoritmos</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
+  </si>
+  <si>
+    <t>Preguntas Entrevistas</t>
+  </si>
+  <si>
+    <t>LIBRERIAS</t>
+  </si>
+  <si>
+    <t>ANALISIS DATOS</t>
+  </si>
+  <si>
+    <t>DATOS</t>
+  </si>
+  <si>
+    <t>Base Datos</t>
+  </si>
+  <si>
+    <t>MSSQL, MariaDB,Sqlite</t>
+  </si>
+  <si>
+    <t>Archivos</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Google Trends</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>AULIXIAR</t>
+  </si>
+  <si>
+    <t>NumPy, Matplot</t>
+  </si>
+  <si>
+    <t>ORIGEN</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
+  </si>
+  <si>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>LIBRERÍA</t>
+  </si>
+  <si>
+    <t>OBJETIVO</t>
+  </si>
+  <si>
+    <t>MSSQL,MariaDB</t>
+  </si>
+  <si>
+    <t>MATERIA PRIMA</t>
+  </si>
+  <si>
+    <t>DATOS EN PYTHON</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t>Analisis Datos</t>
+  </si>
+  <si>
+    <t>Calculos</t>
+  </si>
+  <si>
+    <t>Filtros</t>
+  </si>
+  <si>
+    <t>PyExcel</t>
+  </si>
+  <si>
+    <t>Fetch</t>
+  </si>
+  <si>
+    <t>.csv,xlxs,txt</t>
+  </si>
+  <si>
+    <t>LIMPIAR/MODIFICAR DATOS</t>
+  </si>
+  <si>
+    <t>PyMysql, PyMSSql</t>
+  </si>
+  <si>
+    <t>SQL PURO</t>
+  </si>
+  <si>
+    <t>Leer, Modificar</t>
+  </si>
+  <si>
+    <t>Leer,Modificar BD</t>
+  </si>
+  <si>
+    <t>Leer,Modificar Excel</t>
+  </si>
+  <si>
+    <t>Leer,Modificar Datos en Web</t>
   </si>
 </sst>
 </file>
@@ -265,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +427,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -331,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -353,6 +484,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -667,6 +814,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF4DE3B-DBE2-4548-97B1-C2B3627C58C9}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7"/>
+    <col min="3" max="3" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855096D-CCC9-4CE6-85EE-954FFBD0C050}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -776,7 +1119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394F83AB-4C64-4A81-958F-CED17AEFD0ED}">
   <dimension ref="D5:L14"/>
   <sheetViews>
@@ -814,7 +1157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0231BD-22ED-4D14-A0E3-8854B391206D}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -1100,7 +1443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769B21FD-AE1F-4EF4-ABA8-608EB07B9AFE}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1164,12 +1507,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C0293-D349-4206-BD08-44EF8DE49844}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,12 +1625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A8171-9618-41B1-88B7-BA1C3411DA0C}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,8 +1738,25 @@
         <v>60</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E618D7-FFC5-4555-8527-31586F88806F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/instructor/docs/Libro1.xlsx
+++ b/instructor/docs/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETEC-CTRL-LAB4\Documents\GitHub\python_23_07\instructor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60458B44-B349-4767-B2D0-DE9A983D4D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD74343-8803-4A51-894A-D2972D2C9772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Funciones" sheetId="5" r:id="rId5"/>
     <sheet name="Persona Clase" sheetId="3" r:id="rId6"/>
     <sheet name="Factura Clase" sheetId="6" r:id="rId7"/>
-    <sheet name="Hoja2" sheetId="8" r:id="rId8"/>
+    <sheet name="Base_Datos" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="137">
   <si>
     <t>Array</t>
   </si>
@@ -353,6 +353,96 @@
   </si>
   <si>
     <t>Leer,Modificar Datos en Web</t>
+  </si>
+  <si>
+    <t>Conexión</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>clave</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>sasasa</t>
+  </si>
+  <si>
+    <t>ABRIR</t>
+  </si>
+  <si>
+    <t>Ejecutar SQL</t>
+  </si>
+  <si>
+    <t>Consultas</t>
+  </si>
+  <si>
+    <t>Nuevos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar </t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Confirmar Cambios</t>
+  </si>
+  <si>
+    <t>COMMIT</t>
+  </si>
+  <si>
+    <t>Guardar</t>
+  </si>
+  <si>
+    <t>CERRAR</t>
+  </si>
+  <si>
+    <t>Conexión Cerrar</t>
+  </si>
+  <si>
+    <t>Deshacer Cambios</t>
+  </si>
+  <si>
+    <t>ROLLBACK</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>DIRECTA</t>
+  </si>
+  <si>
+    <t>ODBC</t>
+  </si>
+  <si>
+    <t>Rapida</t>
+  </si>
+  <si>
+    <t>pymysql</t>
+  </si>
+  <si>
+    <t>pyodbcmysql</t>
+  </si>
+  <si>
+    <t>Crear/Modificar</t>
+  </si>
+  <si>
+    <t>Tablas</t>
+  </si>
+  <si>
+    <t>Tablas/ Joins</t>
+  </si>
+  <si>
+    <t>Auxiliar cursor</t>
+  </si>
+  <si>
+    <t>Cargar en</t>
+  </si>
+  <si>
+    <t>Clase/Objetos/Lista</t>
   </si>
 </sst>
 </file>
@@ -390,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +523,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -462,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -500,6 +602,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -817,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF4DE3B-DBE2-4548-97B1-C2B3627C58C9}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1751,12 +1858,156 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E618D7-FFC5-4555-8527-31586F88806F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/instructor/docs/Libro1.xlsx
+++ b/instructor/docs/Libro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETEC-CTRL-LAB4\Documents\GitHub\python_23_07\instructor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD74343-8803-4A51-894A-D2972D2C9772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E0BE94-D653-43A7-A46E-2C72FCC9C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Persona Clase" sheetId="3" r:id="rId6"/>
     <sheet name="Factura Clase" sheetId="6" r:id="rId7"/>
     <sheet name="Base_Datos" sheetId="8" r:id="rId8"/>
+    <sheet name="Grafica" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
   <si>
     <t>Array</t>
   </si>
@@ -443,6 +444,48 @@
   </si>
   <si>
     <t>Clase/Objetos/Lista</t>
+  </si>
+  <si>
+    <t>Tabla Datos</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Codigo Obligatorio</t>
+  </si>
+  <si>
+    <t>Organize</t>
+  </si>
+  <si>
+    <t>Organizaciones</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Boton 1</t>
+  </si>
+  <si>
+    <t>Boton 2</t>
+  </si>
+  <si>
+    <t>Boton 3</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>ORG1</t>
+  </si>
+  <si>
+    <t>ORG 2</t>
+  </si>
+  <si>
+    <t>ORG 3</t>
+  </si>
+  <si>
+    <t>ORG2</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E618D7-FFC5-4555-8527-31586F88806F}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2010,4 +2053,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1448C6AD-4BAF-4621-B316-DD50D363437C}">
+  <dimension ref="A2:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/instructor/docs/Libro1.xlsx
+++ b/instructor/docs/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETEC-CTRL-LAB4\Documents\GitHub\python_23_07\instructor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E0BE94-D653-43A7-A46E-2C72FCC9C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F7D1D-D44A-4DE3-83E6-59F17252942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{89A7C952-5D08-4955-8012-9A8DF510B4AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
   <si>
     <t>Array</t>
   </si>
@@ -486,6 +486,21 @@
   </si>
   <si>
     <t>ORG2</t>
+  </si>
+  <si>
+    <t>Ventanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicación </t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Llama Ventana</t>
+  </si>
+  <si>
+    <t>Organizaciónes</t>
   </si>
 </sst>
 </file>
@@ -2057,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1448C6AD-4BAF-4621-B316-DD50D363437C}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,9 +2159,32 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
